--- a/Anand_Work/FallWork2018/Provider_survey_data.xlsx
+++ b/Anand_Work/FallWork2018/Provider_survey_data.xlsx
@@ -23145,13 +23145,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="H35" zoomScale="67" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29663,7 +29663,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="2" spans="1:2170" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2170</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="3" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3901</v>
       </c>
@@ -42687,7 +42687,7 @@
         <v>6070</v>
       </c>
     </row>
-    <row r="4" spans="1:2170" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43378.469340277778</v>
       </c>
@@ -42725,7 +42725,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="5" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43378.470289351855</v>
       </c>
@@ -42772,7 +42772,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="6" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43380.911504629628</v>
       </c>
@@ -42840,7 +42840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43381.709641203706</v>
       </c>
@@ -42920,7 +42920,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="8" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43381.712488425925</v>
       </c>
@@ -43015,7 +43015,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="9" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43381.714745370373</v>
       </c>
@@ -43110,7 +43110,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="10" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43381.716354166667</v>
       </c>
@@ -43202,7 +43202,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="11" spans="1:2170" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43381.747719907406</v>
       </c>
@@ -43285,7 +43285,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="12" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43381.737905092596</v>
       </c>
@@ -43590,7 +43590,7 @@
         <v>6191</v>
       </c>
     </row>
-    <row r="13" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43381.875717592593</v>
       </c>
@@ -43685,7 +43685,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="14" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43382.019479166665</v>
       </c>
@@ -43762,7 +43762,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="15" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43382.42454861111</v>
       </c>
@@ -43986,7 +43986,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="16" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2170" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43382.427812499998</v>
       </c>
@@ -44261,7 +44261,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="17" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43382.504050925927</v>
       </c>
@@ -44770,7 +44770,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="18" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43382.631956018522</v>
       </c>
@@ -44865,7 +44865,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="19" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43383.439305555556</v>
       </c>
@@ -44945,7 +44945,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="20" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43383.492534722223</v>
       </c>
@@ -45676,7 +45676,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="21" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43383.669710648152</v>
       </c>
@@ -45771,7 +45771,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="22" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43383.672615740739</v>
       </c>
@@ -45866,7 +45866,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="23" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43384.428842592592</v>
       </c>
@@ -45961,7 +45961,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="24" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43385.601666666669</v>
       </c>
@@ -46056,7 +46056,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="25" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43388.434618055559</v>
       </c>
@@ -46355,7 +46355,7 @@
         <v>6466</v>
       </c>
     </row>
-    <row r="26" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43388.554270833331</v>
       </c>
@@ -46525,7 +46525,7 @@
         <v>6243</v>
       </c>
     </row>
-    <row r="27" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43383.459085648145</v>
       </c>
@@ -46836,7 +46836,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="28" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43388.671493055554</v>
       </c>
@@ -47117,7 +47117,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="29" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43388.647847222222</v>
       </c>
@@ -47803,7 +47803,7 @@
         <v>6593</v>
       </c>
     </row>
-    <row r="30" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43388.695034722223</v>
       </c>
@@ -48105,7 +48105,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="31" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43389.655613425923</v>
       </c>
@@ -48143,7 +48143,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="32" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:405 1736:2042 2156:2164" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43389.65587962963</v>
       </c>
@@ -48181,7 +48181,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="33" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43389.657500000001</v>
       </c>
@@ -48231,7 +48231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43390.461076388892</v>
       </c>
@@ -48470,7 +48470,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="35" spans="1:390 1736:1998 2156:2162" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43384.485509259262</v>
       </c>
@@ -49063,7 +49063,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="36" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43391.506226851852</v>
       </c>
@@ -49275,7 +49275,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="37" spans="1:390 1736:1998 2156:2162" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43392.473680555559</v>
       </c>
@@ -49541,7 +49541,7 @@
         <v>6769</v>
       </c>
     </row>
-    <row r="38" spans="1:390 1736:1998 2156:2162" ht="270" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43395.425162037034</v>
       </c>
@@ -49801,7 +49801,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="39" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43396.658136574071</v>
       </c>
@@ -49959,7 +49959,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="40" spans="1:390 1736:1998 2156:2162" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43396.761643518519</v>
       </c>
@@ -50048,7 +50048,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="41" spans="1:390 1736:1998 2156:2162" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43396.743159722224</v>
       </c>
@@ -50326,7 +50326,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="42" spans="1:390 1736:1998 2156:2162" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43396.763298611113</v>
       </c>
@@ -50538,7 +50538,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="43" spans="1:390 1736:1998 2156:2162" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43397.596319444441</v>
       </c>
@@ -50723,7 +50723,7 @@
         <v>6902</v>
       </c>
     </row>
-    <row r="44" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43397.69358796296</v>
       </c>
@@ -50806,7 +50806,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="45" spans="1:390 1736:1998 2156:2162" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43396.695104166669</v>
       </c>
@@ -51123,7 +51123,7 @@
         <v>6944</v>
       </c>
     </row>
-    <row r="46" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43398.420324074075</v>
       </c>
@@ -51206,7 +51206,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="47" spans="1:390 1736:1998 2156:2162" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43399.734178240738</v>
       </c>
@@ -51511,7 +51511,7 @@
         <v>6977</v>
       </c>
     </row>
-    <row r="48" spans="1:390 1736:1998 2156:2162" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:390 1736:1998 2156:2162" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43399.627268518518</v>
       </c>

--- a/Anand_Work/FallWork2018/Provider_survey_data.xlsx
+++ b/Anand_Work/FallWork2018/Provider_survey_data.xlsx
@@ -23145,8 +23145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H35" zoomScale="67" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
